--- a/Analysis/Assumption check.xlsx
+++ b/Analysis/Assumption check.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7740"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>Response</t>
   </si>
@@ -250,13 +250,34 @@
   </si>
   <si>
     <t>mc</t>
+  </si>
+  <si>
+    <t>Aphelenchidae</t>
+  </si>
+  <si>
+    <t>Hoplolaimidae</t>
+  </si>
+  <si>
+    <t>Cephalobidae</t>
+  </si>
+  <si>
+    <t>Plectidae</t>
+  </si>
+  <si>
+    <t>Telotylenchidae</t>
+  </si>
+  <si>
+    <t>zero inflated?</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,11 +314,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -371,6 +397,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -405,6 +432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -580,14 +608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -599,7 +627,7 @@
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -642,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -653,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -670,7 +698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -687,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -704,7 +732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -721,7 +749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -738,7 +766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -755,7 +783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -772,7 +800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -789,7 +817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -809,7 +837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -829,7 +857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -849,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -869,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -889,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -909,7 +937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -929,7 +957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -949,7 +977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -969,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -989,7 +1017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1006,7 +1034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1043,7 +1071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1060,7 +1088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1077,7 +1105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -1094,7 +1122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1111,7 +1139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1129,6 +1157,99 @@
       </c>
       <c r="H30" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1137,24 +1258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
